--- a/4 teste mesa.xlsx
+++ b/4 teste mesa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backup\Desktop\codigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noite\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218B12C-A35A-49F3-A850-E90E04585CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7C10F-29CC-4443-9C28-0ADE88A0630E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="2268" windowWidth="12084" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -366,12 +366,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,23 +385,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50000</v>
+        <v>20000</v>
+      </c>
+      <c r="B2">
+        <v>560</v>
+      </c>
+      <c r="C2">
+        <v>9000</v>
+      </c>
+      <c r="D2">
+        <v>25660</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>14000</v>
-      </c>
-      <c r="C3">
-        <v>22500</v>
-      </c>
-      <c r="D3">
-        <v>86500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" s="1"/>
     </row>
   </sheetData>
